--- a/contohexcel.xlsx
+++ b/contohexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Portofolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248CEA43-6553-49EE-BA05-B89A077F7A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA2EFB2-2160-4AF7-A18B-78D45D61508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{E439FAF3-C83C-4C65-9E2F-9DB1A2715E4E}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ini namanya jari jempol</t>
   </si>
   <si>
     <t>ini di tengah</t>
+  </si>
+  <si>
+    <t>ini di tenggara</t>
   </si>
 </sst>
 </file>
@@ -391,20 +394,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994CFB06-CDF6-41DE-944F-1BF76C284A86}">
-  <dimension ref="A3:B8"/>
+  <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>1</v>
       </c>
